--- a/Trade_Georgia.xlsx
+++ b/Trade_Georgia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emory-my.sharepoint.com/personal/globzha_emory_edu/Documents/Emory/2nd Year/Fourth Semester/International Trade Theory - ECON-731/Project/Project Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABA94B67-F615-4F0E-8D36-5DDCD7298C14}"/>
+  <xr:revisionPtr revIDLastSave="350" documentId="11_F25DC773A252ABDACC1048A80958762A5BDE58F2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{345CCA04-0A79-43C5-BA62-8D0DE7C550E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10176" yWindow="108" windowWidth="12864" windowHeight="8784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -219,9 +219,6 @@
   </si>
   <si>
     <t>I2024</t>
-  </si>
-  <si>
-    <t>I2025</t>
   </si>
   <si>
     <t>Zambia</t>
@@ -763,12 +760,15 @@
   <si>
     <t>CIS</t>
   </si>
+  <si>
+    <t>X2024</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,6 +787,12 @@
       <color indexed="8"/>
       <name val="Sylfaen"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -837,6 +843,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B4E806-C071-418B-81CA-2F1E6BF783C6}">
   <dimension ref="A1:BO179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AK5" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1118,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" t="s">
         <v>239</v>
-      </c>
-      <c r="D1" t="s">
-        <v>240</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1211,97 +1221,97 @@
         <v>29</v>
       </c>
       <c r="AH1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>53</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>54</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>55</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>56</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>57</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>58</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>59</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.3">
@@ -1309,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1408,19 +1418,19 @@
         <v>739.97471699763912</v>
       </c>
       <c r="AI2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1503,7 +1513,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1602,19 +1612,19 @@
         <v>565.74330721207082</v>
       </c>
       <c r="AI3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN3">
         <v>5.0181100000000001</v>
@@ -1697,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1706,19 +1716,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1892,7 +1902,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1901,19 +1911,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2087,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2186,19 +2196,19 @@
         <v>804.29053999999985</v>
       </c>
       <c r="AI6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -2282,7 +2292,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2291,19 +2301,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2381,19 +2391,19 @@
         <v>0</v>
       </c>
       <c r="AI7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN7">
         <v>0</v>
@@ -2477,7 +2487,7 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2672,7 +2682,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2867,7 +2877,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -3062,7 +3072,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -3257,7 +3267,7 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -3266,19 +3276,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J12">
         <v>700.48797000000002</v>
@@ -3452,7 +3462,7 @@
         <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -3647,7 +3657,7 @@
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3656,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J14">
         <v>1.75</v>
@@ -3842,7 +3852,7 @@
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4036,7 +4046,7 @@
         <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4045,19 +4055,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -4135,19 +4145,19 @@
         <v>0</v>
       </c>
       <c r="AI16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4230,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4424,7 +4434,7 @@
         <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -4618,7 +4628,7 @@
         <v>68</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -4627,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4812,7 +4822,7 @@
         <v>70</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4821,19 +4831,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5006,7 +5016,7 @@
         <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -5015,19 +5025,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21">
         <v>1.77</v>
@@ -5200,7 +5210,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -5394,7 +5404,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -5588,7 +5598,7 @@
         <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -5782,7 +5792,7 @@
         <v>100</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5976,7 +5986,7 @@
         <v>104</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -5985,19 +5995,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6170,7 +6180,7 @@
         <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -6269,19 +6279,19 @@
         <v>6.8</v>
       </c>
       <c r="AI27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN27">
         <v>0</v>
@@ -6364,7 +6374,7 @@
         <v>112</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -6558,7 +6568,7 @@
         <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -6567,19 +6577,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -6752,7 +6762,7 @@
         <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -6761,19 +6771,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6851,19 +6861,19 @@
         <v>0</v>
       </c>
       <c r="AI30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -6946,7 +6956,7 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -7140,7 +7150,7 @@
         <v>136</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -7149,19 +7159,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -7239,19 +7249,19 @@
         <v>9.1392000000000007</v>
       </c>
       <c r="AI32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM32" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN32">
         <v>18.525689999999997</v>
@@ -7334,7 +7344,7 @@
         <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -7343,19 +7353,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -7433,19 +7443,19 @@
         <v>0</v>
       </c>
       <c r="AI33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -7528,7 +7538,7 @@
         <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -7537,19 +7547,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -7722,7 +7732,7 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -7731,19 +7741,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -7916,7 +7926,7 @@
         <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -8110,7 +8120,7 @@
         <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -8304,7 +8314,7 @@
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -8498,7 +8508,7 @@
         <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -8692,7 +8702,7 @@
         <v>178</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -8791,19 +8801,19 @@
         <v>171.09199999999998</v>
       </c>
       <c r="AI40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -8886,7 +8896,7 @@
         <v>188</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -8895,19 +8905,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -9080,7 +9090,7 @@
         <v>191</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -9274,7 +9284,7 @@
         <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -9283,46 +9293,46 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -9373,19 +9383,19 @@
         <v>0</v>
       </c>
       <c r="AI43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -9468,7 +9478,7 @@
         <v>196</v>
       </c>
       <c r="B44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -9662,7 +9672,7 @@
         <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -9856,7 +9866,7 @@
         <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -9865,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -10050,7 +10060,7 @@
         <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -10244,7 +10254,7 @@
         <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -10253,19 +10263,19 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -10343,19 +10353,19 @@
         <v>0</v>
       </c>
       <c r="AI48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN48">
         <v>0</v>
@@ -10438,7 +10448,7 @@
         <v>214</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -10447,19 +10457,19 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -10537,19 +10547,19 @@
         <v>0</v>
       </c>
       <c r="AI49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -10632,7 +10642,7 @@
         <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -10641,19 +10651,19 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -10826,7 +10836,7 @@
         <v>222</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -10835,19 +10845,19 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -10925,19 +10935,19 @@
         <v>0</v>
       </c>
       <c r="AI51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -11020,7 +11030,7 @@
         <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -11029,19 +11039,19 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -11214,7 +11224,7 @@
         <v>231</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -11223,19 +11233,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J53">
         <v>21.151850000000003</v>
@@ -11313,19 +11323,19 @@
         <v>0</v>
       </c>
       <c r="AI53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN53">
         <v>1.14263</v>
@@ -11408,7 +11418,7 @@
         <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -11602,7 +11612,7 @@
         <v>246</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -11796,7 +11806,7 @@
         <v>250</v>
       </c>
       <c r="B56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -11990,7 +12000,7 @@
         <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -11999,19 +12009,19 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -12184,7 +12194,7 @@
         <v>262</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -12193,19 +12203,19 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -12283,19 +12293,19 @@
         <v>40.990991721988024</v>
       </c>
       <c r="AI58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN58">
         <v>0</v>
@@ -12378,7 +12388,7 @@
         <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -12572,7 +12582,7 @@
         <v>270</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -12581,19 +12591,19 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -12671,19 +12681,19 @@
         <v>0</v>
       </c>
       <c r="AI60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN60">
         <v>6.6180099999999999</v>
@@ -12766,7 +12776,7 @@
         <v>275</v>
       </c>
       <c r="B61" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -12960,7 +12970,7 @@
         <v>276</v>
       </c>
       <c r="B62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -13154,7 +13164,7 @@
         <v>288</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -13163,19 +13173,19 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -13253,19 +13263,19 @@
         <v>5182.9223499999998</v>
       </c>
       <c r="AI63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -13348,7 +13358,7 @@
         <v>292</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -13357,19 +13367,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -13542,7 +13552,7 @@
         <v>300</v>
       </c>
       <c r="B65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -13736,7 +13746,7 @@
         <v>320</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -13745,19 +13755,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -13835,19 +13845,19 @@
         <v>0</v>
       </c>
       <c r="AI66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -13930,7 +13940,7 @@
         <v>324</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -13939,19 +13949,19 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J67">
         <v>146.85</v>
@@ -14029,19 +14039,19 @@
         <v>0</v>
       </c>
       <c r="AI67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -14124,7 +14134,7 @@
         <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -14133,19 +14143,19 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J68">
         <v>7.8349999999999989E-2</v>
@@ -14318,7 +14328,7 @@
         <v>336</v>
       </c>
       <c r="B69" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -14417,19 +14427,19 @@
         <v>0</v>
       </c>
       <c r="AI69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM69" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -14512,7 +14522,7 @@
         <v>340</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -14521,19 +14531,19 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -14611,19 +14621,19 @@
         <v>225.5</v>
       </c>
       <c r="AI70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN70">
         <v>84.553629999999998</v>
@@ -14706,7 +14716,7 @@
         <v>344</v>
       </c>
       <c r="B71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -14715,19 +14725,19 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J71">
         <v>4.8</v>
@@ -14900,7 +14910,7 @@
         <v>348</v>
       </c>
       <c r="B72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -15094,7 +15104,7 @@
         <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -15288,7 +15298,7 @@
         <v>356</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -15482,7 +15492,7 @@
         <v>360</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -15676,7 +15686,7 @@
         <v>364</v>
       </c>
       <c r="B76" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -15870,7 +15880,7 @@
         <v>368</v>
       </c>
       <c r="B77" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -16064,7 +16074,7 @@
         <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -16258,7 +16268,7 @@
         <v>376</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -16452,7 +16462,7 @@
         <v>380</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -16646,7 +16656,7 @@
         <v>384</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -16655,19 +16665,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -16840,7 +16850,7 @@
         <v>388</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -16858,37 +16868,37 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R82" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S82">
         <v>0</v>
@@ -17034,7 +17044,7 @@
         <v>392</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -17228,7 +17238,7 @@
         <v>398</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -17422,7 +17432,7 @@
         <v>400</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -17616,7 +17626,7 @@
         <v>404</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -17810,7 +17820,7 @@
         <v>408</v>
       </c>
       <c r="B87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -17819,19 +17829,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J87">
         <v>24.839749999999999</v>
@@ -18004,7 +18014,7 @@
         <v>410</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -18198,7 +18208,7 @@
         <v>414</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -18207,19 +18217,19 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I89" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J89">
         <v>5.1020000000000003E-2</v>
@@ -18392,7 +18402,7 @@
         <v>417</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -18586,7 +18596,7 @@
         <v>418</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -18595,46 +18605,46 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S91">
         <v>0</v>
@@ -18685,19 +18695,19 @@
         <v>62.119199999999999</v>
       </c>
       <c r="AI91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM91" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN91">
         <v>0</v>
@@ -18780,7 +18790,7 @@
         <v>422</v>
       </c>
       <c r="B92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -18974,7 +18984,7 @@
         <v>428</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -19168,7 +19178,7 @@
         <v>430</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -19177,19 +19187,19 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -19362,7 +19372,7 @@
         <v>434</v>
       </c>
       <c r="B95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -19371,19 +19381,19 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I95" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -19556,7 +19566,7 @@
         <v>438</v>
       </c>
       <c r="B96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -19750,7 +19760,7 @@
         <v>440</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -19944,7 +19954,7 @@
         <v>442</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -19953,19 +19963,19 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -20138,7 +20148,7 @@
         <v>446</v>
       </c>
       <c r="B99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -20237,19 +20247,19 @@
         <v>0</v>
       </c>
       <c r="AI99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN99">
         <v>0</v>
@@ -20332,7 +20342,7 @@
         <v>450</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -20431,19 +20441,19 @@
         <v>66.78</v>
       </c>
       <c r="AI100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN100">
         <v>0</v>
@@ -20526,7 +20536,7 @@
         <v>454</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -20625,19 +20635,19 @@
         <v>0</v>
       </c>
       <c r="AI101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM101" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN101">
         <v>0</v>
@@ -20720,7 +20730,7 @@
         <v>458</v>
       </c>
       <c r="B102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -20914,7 +20924,7 @@
         <v>462</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -21108,7 +21118,7 @@
         <v>466</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -21207,19 +21217,19 @@
         <v>124.1576</v>
       </c>
       <c r="AI104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN104">
         <v>0</v>
@@ -21302,7 +21312,7 @@
         <v>470</v>
       </c>
       <c r="B105" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -21496,7 +21506,7 @@
         <v>478</v>
       </c>
       <c r="B106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -21690,7 +21700,7 @@
         <v>480</v>
       </c>
       <c r="B107" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -21884,7 +21894,7 @@
         <v>484</v>
       </c>
       <c r="B108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -21893,19 +21903,19 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I108" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J108">
         <v>0</v>
@@ -22078,7 +22088,7 @@
         <v>492</v>
       </c>
       <c r="B109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -22272,7 +22282,7 @@
         <v>496</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -22466,7 +22476,7 @@
         <v>498</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -22660,7 +22670,7 @@
         <v>499</v>
       </c>
       <c r="B112" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -22854,7 +22864,7 @@
         <v>504</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -22863,19 +22873,19 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I113" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -23048,7 +23058,7 @@
         <v>508</v>
       </c>
       <c r="B114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -23057,19 +23067,19 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -23147,19 +23157,19 @@
         <v>0</v>
       </c>
       <c r="AI114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM114" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN114">
         <v>0</v>
@@ -23242,7 +23252,7 @@
         <v>512</v>
       </c>
       <c r="B115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -23251,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I115" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -23436,7 +23446,7 @@
         <v>516</v>
       </c>
       <c r="B116" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -23535,19 +23545,19 @@
         <v>8922.8844025715662</v>
       </c>
       <c r="AI116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM116" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN116">
         <v>0</v>
@@ -23630,7 +23640,7 @@
         <v>524</v>
       </c>
       <c r="B117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -23639,19 +23649,19 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -23729,19 +23739,19 @@
         <v>0.4</v>
       </c>
       <c r="AI117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM117" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN117">
         <v>0</v>
@@ -23824,7 +23834,7 @@
         <v>528</v>
       </c>
       <c r="B118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -24018,7 +24028,7 @@
         <v>554</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -24212,7 +24222,7 @@
         <v>558</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -24406,7 +24416,7 @@
         <v>562</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -24415,46 +24425,46 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -24505,19 +24515,19 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AI121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN121">
         <v>0</v>
@@ -24600,7 +24610,7 @@
         <v>566</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -24794,7 +24804,7 @@
         <v>578</v>
       </c>
       <c r="B123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -24988,7 +24998,7 @@
         <v>584</v>
       </c>
       <c r="B124" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -24997,19 +25007,19 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I124" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -25182,7 +25192,7 @@
         <v>586</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -25376,7 +25386,7 @@
         <v>591</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -25570,7 +25580,7 @@
         <v>600</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -25669,19 +25679,19 @@
         <v>0</v>
       </c>
       <c r="AI127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM127" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN127">
         <v>0</v>
@@ -25764,7 +25774,7 @@
         <v>604</v>
       </c>
       <c r="B128" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -25863,19 +25873,19 @@
         <v>52585.444080000001</v>
       </c>
       <c r="AI128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN128">
         <v>0</v>
@@ -25958,7 +25968,7 @@
         <v>608</v>
       </c>
       <c r="B129" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -25967,19 +25977,19 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -26057,19 +26067,19 @@
         <v>1635.7212122571816</v>
       </c>
       <c r="AI129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM129" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN129">
         <v>0</v>
@@ -26152,7 +26162,7 @@
         <v>616</v>
       </c>
       <c r="B130" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -26346,7 +26356,7 @@
         <v>620</v>
       </c>
       <c r="B131" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -26540,7 +26550,7 @@
         <v>630</v>
       </c>
       <c r="B132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -26639,19 +26649,19 @@
         <v>8.7380000000000013</v>
       </c>
       <c r="AI132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM132" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN132">
         <v>0</v>
@@ -26734,7 +26744,7 @@
         <v>634</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -26743,19 +26753,19 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I133" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -26928,7 +26938,7 @@
         <v>642</v>
       </c>
       <c r="B134" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -27122,7 +27132,7 @@
         <v>643</v>
       </c>
       <c r="B135" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -27316,7 +27326,7 @@
         <v>646</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -27325,19 +27335,19 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J136">
         <v>83</v>
@@ -27415,19 +27425,19 @@
         <v>0</v>
       </c>
       <c r="AI136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM136" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN136">
         <v>0</v>
@@ -27510,7 +27520,7 @@
         <v>660</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -27704,7 +27714,7 @@
         <v>674</v>
       </c>
       <c r="B138" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -27898,7 +27908,7 @@
         <v>682</v>
       </c>
       <c r="B139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -27907,19 +27917,19 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I139" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -28092,7 +28102,7 @@
         <v>686</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -28101,19 +28111,19 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J140">
         <v>0</v>
@@ -28191,19 +28201,19 @@
         <v>133.52558535002183</v>
       </c>
       <c r="AI140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN140">
         <v>0</v>
@@ -28286,7 +28296,7 @@
         <v>688</v>
       </c>
       <c r="B141" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -28480,7 +28490,7 @@
         <v>690</v>
       </c>
       <c r="B142" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -28489,19 +28499,19 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -28579,19 +28589,19 @@
         <v>185.71850000000001</v>
       </c>
       <c r="AI142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM142" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN142">
         <v>0</v>
@@ -28674,7 +28684,7 @@
         <v>694</v>
       </c>
       <c r="B143" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -28683,19 +28693,19 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -28773,19 +28783,19 @@
         <v>0</v>
       </c>
       <c r="AI143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM143" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN143">
         <v>0</v>
@@ -28868,7 +28878,7 @@
         <v>702</v>
       </c>
       <c r="B144" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -29062,7 +29072,7 @@
         <v>703</v>
       </c>
       <c r="B145" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -29256,7 +29266,7 @@
         <v>704</v>
       </c>
       <c r="B146" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -29450,7 +29460,7 @@
         <v>705</v>
       </c>
       <c r="B147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -29644,7 +29654,7 @@
         <v>706</v>
       </c>
       <c r="B148" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -29653,19 +29663,19 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -29743,19 +29753,19 @@
         <v>0</v>
       </c>
       <c r="AI148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM148" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN148">
         <v>0</v>
@@ -29838,7 +29848,7 @@
         <v>710</v>
       </c>
       <c r="B149" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -29847,19 +29857,19 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I149" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J149">
         <v>546.79899</v>
@@ -30032,7 +30042,7 @@
         <v>716</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -30041,19 +30051,19 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I150" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -30226,7 +30236,7 @@
         <v>724</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -30420,7 +30430,7 @@
         <v>729</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -30429,19 +30439,19 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I152" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -30614,7 +30624,7 @@
         <v>740</v>
       </c>
       <c r="B153" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -30808,7 +30818,7 @@
         <v>752</v>
       </c>
       <c r="B154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -31002,7 +31012,7 @@
         <v>756</v>
       </c>
       <c r="B155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -31196,7 +31206,7 @@
         <v>760</v>
       </c>
       <c r="B156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -31390,7 +31400,7 @@
         <v>762</v>
       </c>
       <c r="B157" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -31584,7 +31594,7 @@
         <v>764</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -31778,7 +31788,7 @@
         <v>768</v>
       </c>
       <c r="B159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -31877,19 +31887,19 @@
         <v>239.334</v>
       </c>
       <c r="AI159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM159" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN159">
         <v>0</v>
@@ -31972,7 +31982,7 @@
         <v>780</v>
       </c>
       <c r="B160" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -31981,19 +31991,19 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -32071,19 +32081,19 @@
         <v>0</v>
       </c>
       <c r="AI160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM160" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN160">
         <v>0</v>
@@ -32166,7 +32176,7 @@
         <v>784</v>
       </c>
       <c r="B161" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -32360,7 +32370,7 @@
         <v>788</v>
       </c>
       <c r="B162" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -32369,19 +32379,19 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I162" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -32554,7 +32564,7 @@
         <v>792</v>
       </c>
       <c r="B163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -32748,7 +32758,7 @@
         <v>795</v>
       </c>
       <c r="B164" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -32942,7 +32952,7 @@
         <v>800</v>
       </c>
       <c r="B165" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -33041,19 +33051,19 @@
         <v>452.54917</v>
       </c>
       <c r="AI165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN165">
         <v>0</v>
@@ -33136,7 +33146,7 @@
         <v>804</v>
       </c>
       <c r="B166" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -33330,7 +33340,7 @@
         <v>807</v>
       </c>
       <c r="B167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -33524,7 +33534,7 @@
         <v>818</v>
       </c>
       <c r="B168" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -33718,7 +33728,7 @@
         <v>826</v>
       </c>
       <c r="B169" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -33912,7 +33922,7 @@
         <v>834</v>
       </c>
       <c r="B170" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -33921,19 +33931,19 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J170">
         <v>4.7789900000000012</v>
@@ -34011,19 +34021,19 @@
         <v>3257.29</v>
       </c>
       <c r="AI170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM170" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN170">
         <v>0</v>
@@ -34106,7 +34116,7 @@
         <v>840</v>
       </c>
       <c r="B171" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -34300,7 +34310,7 @@
         <v>850</v>
       </c>
       <c r="B172" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -34309,19 +34319,19 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J172">
         <v>0</v>
@@ -34399,19 +34409,19 @@
         <v>0</v>
       </c>
       <c r="AI172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM172" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN172">
         <v>0</v>
@@ -34494,7 +34504,7 @@
         <v>854</v>
       </c>
       <c r="B173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -34503,19 +34513,19 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -34593,19 +34603,19 @@
         <v>99.134399999999985</v>
       </c>
       <c r="AI173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM173" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN173">
         <v>0</v>
@@ -34688,7 +34698,7 @@
         <v>858</v>
       </c>
       <c r="B174" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -34697,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I174" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J174">
         <v>0</v>
@@ -34882,7 +34892,7 @@
         <v>860</v>
       </c>
       <c r="B175" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -35076,7 +35086,7 @@
         <v>862</v>
       </c>
       <c r="B176" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -35085,19 +35095,19 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I176" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -35270,7 +35280,7 @@
         <v>887</v>
       </c>
       <c r="B177" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -35279,19 +35289,19 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I177" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J177">
         <v>11.92319</v>
@@ -35464,7 +35474,7 @@
         <v>891</v>
       </c>
       <c r="B178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -35658,7 +35668,7 @@
         <v>894</v>
       </c>
       <c r="B179" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -35757,19 +35767,19 @@
         <v>0</v>
       </c>
       <c r="AI179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AJ179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AK179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AL179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AM179" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AN179">
         <v>0</v>
@@ -35848,6 +35858,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>